--- a/Dataset/Caracteristicas.xlsx
+++ b/Dataset/Caracteristicas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:N276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,37 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Suelo</t>
+          <t>Promedio_aX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_aY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_aZ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_gX</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_gY</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_gZ</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Movimiento</t>
         </is>
       </c>
     </row>
@@ -492,7 +522,25 @@
       <c r="G2" t="n">
         <v>124.58306</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.4779999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-4.225</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.501</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -520,7 +568,25 @@
       <c r="G3" t="n">
         <v>189.160245</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>1.110223024625157e-17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.441</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-7.045</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.375</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -548,7 +614,25 @@
       <c r="G4" t="n">
         <v>63.83063599999999</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-3.431</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3789999999999997</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-5.037999999999999</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -576,7 +660,25 @@
       <c r="G5" t="n">
         <v>5.387148999999999</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>0.2880000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-3.424</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.141</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.329</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -604,7 +706,25 @@
       <c r="G6" t="n">
         <v>9.81504</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-4.039</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.642</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.2600000000000001</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -632,7 +752,25 @@
       <c r="G7" t="n">
         <v>3.762004</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8019999999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-3.722</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.383</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -660,7 +798,25 @@
       <c r="G8" t="n">
         <v>3.352661</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8020000000000002</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-4.96</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.007</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -688,7 +844,25 @@
       <c r="G9" t="n">
         <v>8.541421</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-2.059</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3930000000000001</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -716,7 +890,25 @@
       <c r="G10" t="n">
         <v>174.139089</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2.591</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-4.583</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -744,7 +936,25 @@
       <c r="G11" t="n">
         <v>235.004816</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-2.028</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -772,7 +982,25 @@
       <c r="G12" t="n">
         <v>152.779549</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.432</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-5.471000000000002</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -800,7 +1028,25 @@
       <c r="G13" t="n">
         <v>198.342764</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>-0.08600000000000002</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.02100000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.08400000000000034</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.404000000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-3.136</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -828,7 +1074,25 @@
       <c r="G14" t="n">
         <v>227.696681</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.903</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -856,7 +1120,25 @@
       <c r="G15" t="n">
         <v>151.580329</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.003999999999999915</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.839</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -884,7 +1166,25 @@
       <c r="G16" t="n">
         <v>210.944656</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-3.744</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8579999999999999</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -912,7 +1212,25 @@
       <c r="G17" t="n">
         <v>209.593605</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.1900000000000002</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -940,7 +1258,25 @@
       <c r="G18" t="n">
         <v>158.496676</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.05500000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.157999999999999</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -968,7 +1304,25 @@
       <c r="G19" t="n">
         <v>204.1089289999999</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.341</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -996,7 +1350,25 @@
       <c r="G20" t="n">
         <v>227.583556</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.665999999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1024,7 +1396,25 @@
       <c r="G21" t="n">
         <v>157.748901</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.07199999999999988</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-2.517</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1052,7 +1442,25 @@
       <c r="G22" t="n">
         <v>201.32778</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1080,7 +1488,25 @@
       <c r="G23" t="n">
         <v>169.5152440000001</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01500000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-3.109</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.336</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1.536</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1108,7 +1534,25 @@
       <c r="G24" t="n">
         <v>244.600544</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>0.08299999999999998</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02299999999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1136,7 +1580,25 @@
       <c r="G25" t="n">
         <v>192.313756</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-4.732</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1164,7 +1626,25 @@
       <c r="G26" t="n">
         <v>156.553236</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-10.508</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.312</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.628</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1192,7 +1672,25 @@
       <c r="G27" t="n">
         <v>214.637529</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>-0.131</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-5.889</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-6.409000000000001</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1220,7 +1718,25 @@
       <c r="G28" t="n">
         <v>148.712576</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>-0.098</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-6.343999999999999</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-2.082</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1248,7 +1764,25 @@
       <c r="G29" t="n">
         <v>168.996629</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>-0.008999999999999998</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.232</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1276,7 +1810,25 @@
       <c r="G30" t="n">
         <v>215.04</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06799999999999999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.747</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1304,7 +1856,25 @@
       <c r="G31" t="n">
         <v>164.49604</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.458</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.384</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1332,7 +1902,25 @@
       <c r="G32" t="n">
         <v>245.657744</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.166</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.403999999999999</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1360,7 +1948,25 @@
       <c r="G33" t="n">
         <v>208.315041</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01199999999999999</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-3.212</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.297000000000001</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1388,7 +1994,25 @@
       <c r="G34" t="n">
         <v>166.3202250000001</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.004999999999999</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1416,7 +2040,25 @@
       <c r="G35" t="n">
         <v>174.84288</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>-0.08599999999999998</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8.621</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1444,7 +2086,25 @@
       <c r="G36" t="n">
         <v>213.143556</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>-0.08399999999999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.6929999999999999</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1472,7 +2132,25 @@
       <c r="G37" t="n">
         <v>216.10792</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1500,7 +2178,25 @@
       <c r="G38" t="n">
         <v>185.292204</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-5.441</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.343</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.976</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1528,7 +2224,25 @@
       <c r="G39" t="n">
         <v>150.067629</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9899999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-7.284000000000001</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.689</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.151</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1556,7 +2270,25 @@
       <c r="G40" t="n">
         <v>177.181504</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.06100000000000001</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-2.766</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1584,7 +2316,25 @@
       <c r="G41" t="n">
         <v>158.653496</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-1.262</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1612,7 +2362,25 @@
       <c r="G42" t="n">
         <v>229.115124</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>0.07500000000000002</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.204</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3.576</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1640,7 +2408,25 @@
       <c r="G43" t="n">
         <v>145.643676</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.139</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1.066</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.644</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1.182</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1668,7 +2454,25 @@
       <c r="G44" t="n">
         <v>176.579649</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="n">
+        <v>-0.04200000000000002</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9330000000000002</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.988</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-3.888999999999999</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1696,7 +2500,25 @@
       <c r="G45" t="n">
         <v>155.0277610000001</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.2920000000000001</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8.201000000000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1669999999999998</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1724,7 +2546,25 @@
       <c r="G46" t="n">
         <v>142.806381</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="n">
+        <v>-0.166</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.05900000000000001</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.071000000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.703</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1752,7 +2592,25 @@
       <c r="G47" t="n">
         <v>100.578416</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.842</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.337</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-7.718000000000001</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1780,7 +2638,25 @@
       <c r="G48" t="n">
         <v>219.925284</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.01800000000000004</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1808,7 +2684,25 @@
       <c r="G49" t="n">
         <v>241.513601</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.2920000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-8.262</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.3130000000000001</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1836,7 +2730,25 @@
       <c r="G50" t="n">
         <v>95.197416</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>-0.142</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.009999999999999992</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9499999999999998</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6309999999999997</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-4.532</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1864,7 +2776,25 @@
       <c r="G51" t="n">
         <v>107.624201</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="n">
+        <v>-0.05500000000000001</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.007999999999999998</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.619000000000001</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.571</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-6.373</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1892,7 +2822,25 @@
       <c r="G52" t="n">
         <v>108.725109</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-2.097</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-2.301000000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7.778999999999999</v>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1920,7 +2868,25 @@
       <c r="G53" t="n">
         <v>134.029101</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>-0.05900000000000001</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.3759999999999998</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.055</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.167</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1948,7 +2914,25 @@
       <c r="G54" t="n">
         <v>168.720309</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="n">
+        <v>-0.06199999999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-2.248</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.871</v>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -1976,7 +2960,25 @@
       <c r="G55" t="n">
         <v>203.456564</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-3.341</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-3.171</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.854</v>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -2004,7 +3006,25 @@
       <c r="G56" t="n">
         <v>136.099065</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="n">
+        <v>-0.06100000000000001</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-5.776999999999999</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-3.385</v>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>Abajo</t>
         </is>
@@ -2032,7 +3052,25 @@
       <c r="G57" t="n">
         <v>43.156885</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>-0.259</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9349999999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.02700000000000003</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-6.101000000000001</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5.165000000000001</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2060,7 +3098,25 @@
       <c r="G58" t="n">
         <v>161.284389</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="n">
+        <v>-0.192</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.8270000000000002</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.408</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.2430000000000002</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.01899999999999977</v>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2088,7 +3144,25 @@
       <c r="G59" t="n">
         <v>201.727956</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>-0.151</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8400000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2109999999999999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-4.827999999999999</v>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2116,7 +3190,25 @@
       <c r="G60" t="n">
         <v>163.992004</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.844</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.05800000000000002</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-1.857</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8.166</v>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2144,7 +3236,25 @@
       <c r="G61" t="n">
         <v>161.317664</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="n">
+        <v>-0.151</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.8800000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.008000000000000019</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9620000000000001</v>
+      </c>
+      <c r="M61" t="n">
+        <v>7.706</v>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2172,7 +3282,25 @@
       <c r="G62" t="n">
         <v>159.038201</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.8629999999999999</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.02200000000000001</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-4.959000000000001</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-7.276999999999999</v>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2200,7 +3328,25 @@
       <c r="G63" t="n">
         <v>215.522481</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>-0.224</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.829</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-4.294</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-1.407</v>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2228,7 +3374,25 @@
       <c r="G64" t="n">
         <v>215.220041</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="n">
+        <v>-0.145</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.834</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.06300000000000025</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.506999999999999</v>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2256,7 +3420,25 @@
       <c r="G65" t="n">
         <v>223.1931290000001</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>-0.255</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.8780000000000001</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.08099999999999999</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.4769999999999998</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6090000000000002</v>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2284,7 +3466,25 @@
       <c r="G66" t="n">
         <v>245.76</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>-0.123</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.923</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-3.188</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2312,7 +3512,25 @@
       <c r="G67" t="n">
         <v>207.344889</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>-0.186</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.8790000000000001</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-4.581</v>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2340,7 +3558,25 @@
       <c r="G68" t="n">
         <v>227.620241</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.8089999999999999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.972</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-3.862</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2368,7 +3604,25 @@
       <c r="G69" t="n">
         <v>233.327696</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="n">
+        <v>-0.219</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.882</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.3940000000000005</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.6880000000000003</v>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2396,7 +3650,25 @@
       <c r="G70" t="n">
         <v>236.344804</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>-0.244</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.914</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-1.042</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.6480000000000004</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2424,7 +3696,25 @@
       <c r="G71" t="n">
         <v>155.359104</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.8119999999999999</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-7.716000000000001</v>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2452,7 +3742,25 @@
       <c r="G72" t="n">
         <v>153.175929</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.893</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.08099999999999999</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-7.648999999999999</v>
+      </c>
+      <c r="N72" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2480,7 +3788,25 @@
       <c r="G73" t="n">
         <v>43.156885</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>-0.259</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.9349999999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.02700000000000003</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-6.101000000000001</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5.165000000000001</v>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2508,7 +3834,25 @@
       <c r="G74" t="n">
         <v>150.9413359999999</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.833</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-4.278</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-3.217999999999999</v>
+      </c>
+      <c r="N74" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2536,7 +3880,25 @@
       <c r="G75" t="n">
         <v>207.664241</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" t="n">
+        <v>-0.209</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.7729999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.08199999999999955</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.137</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2564,7 +3926,25 @@
       <c r="G76" t="n">
         <v>136.096416</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.873</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-3.722</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.579000000000001</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2592,7 +3972,25 @@
       <c r="G77" t="n">
         <v>142.580085</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.876</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.3749999999999999</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.659999999999999</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.1549999999999996</v>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2620,7 +4018,25 @@
       <c r="G78" t="n">
         <v>130.45216</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="n">
+        <v>-0.101</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.868</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-1.199</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3.655</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2648,7 +4064,25 @@
       <c r="G79" t="n">
         <v>139.065541</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>-0.248</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.873</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.527</v>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2676,7 +4110,25 @@
       <c r="G80" t="n">
         <v>121.843804</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>-0.123</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.834</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2.994</v>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2704,7 +4156,25 @@
       <c r="G81" t="n">
         <v>86.50060099999999</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-1.083</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-1.219</v>
+      </c>
+      <c r="L81" t="n">
+        <v>9.456999999999999</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2732,7 +4202,25 @@
       <c r="G82" t="n">
         <v>106.037536</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.8720000000000001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-8.275</v>
+      </c>
+      <c r="L82" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="M82" t="n">
+        <v>7.912000000000001</v>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2760,7 +4248,25 @@
       <c r="G83" t="n">
         <v>204.936009</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="n">
+        <v>-0.235</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.8179999999999999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.7710000000000001</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.238999999999999</v>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2788,7 +4294,25 @@
       <c r="G84" t="n">
         <v>226.132104</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="n">
+        <v>-0.335</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.794</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.4159999999999999</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.5899999999999999</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3.606</v>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2816,7 +4340,25 @@
       <c r="G85" t="n">
         <v>180.583049</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="n">
+        <v>-0.188</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.631</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5239999999999999</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-4.901</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-1.809</v>
+      </c>
+      <c r="N85" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2844,7 +4386,25 @@
       <c r="G86" t="n">
         <v>213.046836</v>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="n">
+        <v>-0.209</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.916</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7.711</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2872,7 +4432,25 @@
       <c r="G87" t="n">
         <v>178.297756</v>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="n">
+        <v>-0.134</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.8169999999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.3089999999999996</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="N87" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2900,7 +4478,25 @@
       <c r="G88" t="n">
         <v>177.818076</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" t="n">
+        <v>-0.293</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.843</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.3270000000000001</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-2.928</v>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2928,7 +4524,25 @@
       <c r="G89" t="n">
         <v>147.434289</v>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" t="n">
+        <v>-0.152</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.8099999999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-2.075</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-4.581</v>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2956,7 +4570,25 @@
       <c r="G90" t="n">
         <v>123.660821</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.4349999999999998</v>
+      </c>
+      <c r="M90" t="n">
+        <v>7.433</v>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -2984,7 +4616,25 @@
       <c r="G91" t="n">
         <v>210.747961</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.9400000000000001</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-5.798</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.273</v>
+      </c>
+      <c r="N91" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3012,7 +4662,25 @@
       <c r="G92" t="n">
         <v>215.04</v>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="n">
+        <v>-0.229</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="M92" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3040,7 +4708,25 @@
       <c r="G93" t="n">
         <v>163.8400000000001</v>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="n">
+        <v>-0.258</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.9440000000000002</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-2.916</v>
+      </c>
+      <c r="M93" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="N93" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3068,7 +4754,25 @@
       <c r="G94" t="n">
         <v>237.338105</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="n">
+        <v>-0.187</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.849</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.005000000000000071</v>
+      </c>
+      <c r="N94" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3096,7 +4800,25 @@
       <c r="G95" t="n">
         <v>206.947401</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="n">
+        <v>-0.238</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.891</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-4.817</v>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3124,7 +4846,25 @@
       <c r="G96" t="n">
         <v>227.754769</v>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="n">
+        <v>-0.05300000000000001</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-1.014</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.7390000000000001</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.629</v>
+      </c>
+      <c r="N96" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3152,7 +4892,25 @@
       <c r="G97" t="n">
         <v>167.409076</v>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="n">
+        <v>-0.151</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.9850000000000001</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-11.675</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4.681999999999999</v>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3180,7 +4938,25 @@
       <c r="G98" t="n">
         <v>102.764121</v>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H98" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.9949999999999999</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3.542</v>
+      </c>
+      <c r="M98" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="N98" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3208,7 +4984,25 @@
       <c r="G99" t="n">
         <v>165.957544</v>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" t="n">
+        <v>-0.289</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.6879999999999999</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-3.566</v>
+      </c>
+      <c r="N99" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3236,7 +5030,25 @@
       <c r="G100" t="n">
         <v>195.340504</v>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" t="n">
+        <v>-0.042</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.788</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.09100000000000001</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-9.418000000000001</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3264,7 +5076,25 @@
       <c r="G101" t="n">
         <v>213.221604</v>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" t="n">
+        <v>-0.354</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.8280000000000001</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.261</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-3.301</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4.999000000000001</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-4.366</v>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3292,7 +5122,25 @@
       <c r="G102" t="n">
         <v>244.789124</v>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" t="n">
+        <v>-0.319</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.742</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.159</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="N102" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3320,7 +5168,25 @@
       <c r="G103" t="n">
         <v>178.4163359999999</v>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" t="n">
+        <v>-0.154</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="K103" t="n">
+        <v>6.399</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-3.997</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-5.952</v>
+      </c>
+      <c r="N103" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3348,7 +5214,25 @@
       <c r="G104" t="n">
         <v>150.207161</v>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.859</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-8.927000000000001</v>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3376,7 +5260,25 @@
       <c r="G105" t="n">
         <v>175.537489</v>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.834</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="L105" t="n">
+        <v>8.675999999999998</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.7710000000000001</v>
+      </c>
+      <c r="N105" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3404,7 +5306,25 @@
       <c r="G106" t="n">
         <v>148.934244</v>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" t="n">
+        <v>-0.237</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.795</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02200000000000001</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-3.862</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-5.944000000000001</v>
+      </c>
+      <c r="N106" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3432,7 +5352,25 @@
       <c r="G107" t="n">
         <v>174.484689</v>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" t="n">
+        <v>-0.274</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.873</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.06799999999999999</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-4.806999999999999</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2.643</v>
+      </c>
+      <c r="M107" t="n">
+        <v>6.629</v>
+      </c>
+      <c r="N107" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3460,7 +5398,25 @@
       <c r="G108" t="n">
         <v>182.445716</v>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.8859999999999999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-2.455</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-2.742</v>
+      </c>
+      <c r="N108" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3488,7 +5444,25 @@
       <c r="G109" t="n">
         <v>205.958889</v>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.9099999999999999</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-0.5219999999999999</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-4.181</v>
+      </c>
+      <c r="N109" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3516,7 +5490,25 @@
       <c r="G110" t="n">
         <v>154.234205</v>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.761</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-2.625</v>
+      </c>
+      <c r="N110" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3544,7 +5536,25 @@
       <c r="G111" t="n">
         <v>227.570849</v>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" t="n">
+        <v>-0.401</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.719</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.3080000000000001</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3.649</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-0.8610000000000003</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="N111" t="inlineStr">
         <is>
           <t>Atras</t>
         </is>
@@ -3572,7 +5582,25 @@
       <c r="G112" t="n">
         <v>102.701961</v>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H112" t="n">
+        <v>0.9030000000000001</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.01900000000000001</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4.547</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-1.452</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-0.4370000000000001</v>
+      </c>
+      <c r="N112" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3600,7 +5628,25 @@
       <c r="G113" t="n">
         <v>229.175681</v>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="n">
+        <v>0.7689999999999999</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.05700000000000001</v>
+      </c>
+      <c r="K113" t="n">
+        <v>8.952999999999999</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="N113" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3628,7 +5674,25 @@
       <c r="G114" t="n">
         <v>238.7889</v>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H114" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.8950000000000001</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="N114" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3656,7 +5720,25 @@
       <c r="G115" t="n">
         <v>166.923981</v>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="n">
+        <v>0.8379999999999999</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.03199999999999999</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.06100000000000001</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-4.036</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-2.163</v>
+      </c>
+      <c r="N115" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3684,7 +5766,25 @@
       <c r="G116" t="n">
         <v>149.600204</v>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H116" t="n">
+        <v>0.9869999999999999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-2.554000000000001</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-7.264</v>
+      </c>
+      <c r="N116" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3712,7 +5812,25 @@
       <c r="G117" t="n">
         <v>154.85078</v>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.147</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-6.262</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-8.559999999999999</v>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3740,7 +5858,25 @@
       <c r="G118" t="n">
         <v>193.946385</v>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="n">
+        <v>0.9179999999999999</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3.268000000000001</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="N118" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3768,7 +5904,25 @@
       <c r="G119" t="n">
         <v>119.083044</v>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.146</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.06099999999999998</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-2.138</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3.423999999999999</v>
+      </c>
+      <c r="N119" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3796,7 +5950,25 @@
       <c r="G120" t="n">
         <v>194.827689</v>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" t="n">
+        <v>0.8390000000000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.6809999999999998</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-3.161</v>
+      </c>
+      <c r="N120" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3824,7 +5996,25 @@
       <c r="G121" t="n">
         <v>162.365604</v>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.09900000000000002</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="L121" t="n">
+        <v>6.000999999999999</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-3.444</v>
+      </c>
+      <c r="N121" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3852,7 +6042,25 @@
       <c r="G122" t="n">
         <v>227.541916</v>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H122" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.05599999999999999</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.2780000000000001</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.952</v>
+      </c>
+      <c r="N122" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3880,7 +6088,25 @@
       <c r="G123" t="n">
         <v>120.699081</v>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H123" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1.613000000000001</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.01599999999999966</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4.067</v>
+      </c>
+      <c r="N123" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3908,7 +6134,25 @@
       <c r="G124" t="n">
         <v>122.456464</v>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H124" t="n">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-0.6960000000000001</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.351</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-4.916</v>
+      </c>
+      <c r="N124" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3936,7 +6180,25 @@
       <c r="G125" t="n">
         <v>164.961856</v>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="H125" t="n">
+        <v>0.6979999999999998</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.103</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.4410000000000002</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.186</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-2.062</v>
+      </c>
+      <c r="N125" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3964,7 +6226,25 @@
       <c r="G126" t="n">
         <v>161.284109</v>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H126" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.09999999999999999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-1.605</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.3290000000000003</v>
+      </c>
+      <c r="N126" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -3992,7 +6272,25 @@
       <c r="G127" t="n">
         <v>124.149104</v>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H127" t="n">
+        <v>0.7090000000000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.06899999999999999</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-0.7780000000000001</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4.634</v>
+      </c>
+      <c r="N127" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4020,7 +6318,25 @@
       <c r="G128" t="n">
         <v>122.737436</v>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H128" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-4.165999999999999</v>
+      </c>
+      <c r="L128" t="n">
+        <v>4.577</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="N128" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4048,7 +6364,25 @@
       <c r="G129" t="n">
         <v>168.495561</v>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H129" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="K129" t="n">
+        <v>5.057</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.992999999999999</v>
+      </c>
+      <c r="N129" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4076,7 +6410,25 @@
       <c r="G130" t="n">
         <v>174.340409</v>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H130" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-4.717000000000001</v>
+      </c>
+      <c r="L130" t="n">
+        <v>12.101</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3.721</v>
+      </c>
+      <c r="N130" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4104,7 +6456,25 @@
       <c r="G131" t="n">
         <v>63.956641</v>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H131" t="n">
+        <v>0.6990000000000001</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-1.973</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4.679</v>
+      </c>
+      <c r="M131" t="n">
+        <v>6.063000000000001</v>
+      </c>
+      <c r="N131" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4132,7 +6502,25 @@
       <c r="G132" t="n">
         <v>93.08218099999999</v>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H132" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.4269999999999999</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M132" t="n">
+        <v>7.052999999999999</v>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4160,7 +6548,25 @@
       <c r="G133" t="n">
         <v>161.228804</v>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H133" t="n">
+        <v>0.7180000000000001</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-1.191</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2.711</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-1.196</v>
+      </c>
+      <c r="N133" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4188,7 +6594,25 @@
       <c r="G134" t="n">
         <v>157.922184</v>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H134" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-4.596</v>
+      </c>
+      <c r="N134" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4216,7 +6640,25 @@
       <c r="G135" t="n">
         <v>98.32540400000001</v>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H135" t="n">
+        <v>0.6910000000000001</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.07900000000000004</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-3.824</v>
+      </c>
+      <c r="N135" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4244,7 +6686,25 @@
       <c r="G136" t="n">
         <v>131.333016</v>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H136" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2.295</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="N136" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4272,7 +6732,25 @@
       <c r="G137" t="n">
         <v>192.087569</v>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H137" t="n">
+        <v>0.6829999999999998</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.107</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-8.999000000000001</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>4.369000000000001</v>
+      </c>
+      <c r="N137" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4300,7 +6778,25 @@
       <c r="G138" t="n">
         <v>158.449424</v>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H138" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.091</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-1.083</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-4.366</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-4.874</v>
+      </c>
+      <c r="N138" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4328,7 +6824,25 @@
       <c r="G139" t="n">
         <v>183.840889</v>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H139" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-3.177</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.2080000000000001</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-1.011</v>
+      </c>
+      <c r="N139" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4356,7 +6870,25 @@
       <c r="G140" t="n">
         <v>208.378924</v>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H140" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-2.856</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.4440000000000001</v>
+      </c>
+      <c r="N140" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4384,7 +6916,25 @@
       <c r="G141" t="n">
         <v>154.93768</v>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H141" t="n">
+        <v>0.8030000000000002</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-4.861</v>
+      </c>
+      <c r="L141" t="n">
+        <v>-3.225</v>
+      </c>
+      <c r="M141" t="n">
+        <v>8.040000000000001</v>
+      </c>
+      <c r="N141" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4412,7 +6962,25 @@
       <c r="G142" t="n">
         <v>123.623816</v>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H142" t="n">
+        <v>0.7859999999999999</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.7769999999999996</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-5.542</v>
+      </c>
+      <c r="N142" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4440,7 +7008,25 @@
       <c r="G143" t="n">
         <v>203.2884</v>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H143" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="N143" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4468,7 +7054,25 @@
       <c r="G144" t="n">
         <v>157.715936</v>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H144" t="n">
+        <v>0.7230000000000001</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-10.608</v>
+      </c>
+      <c r="L144" t="n">
+        <v>-6.848000000000001</v>
+      </c>
+      <c r="M144" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="N144" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4496,7 +7100,25 @@
       <c r="G145" t="n">
         <v>194.115709</v>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H145" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.05700000000000001</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K145" t="n">
+        <v>5.116</v>
+      </c>
+      <c r="L145" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-3.671</v>
+      </c>
+      <c r="N145" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4524,7 +7146,25 @@
       <c r="G146" t="n">
         <v>161.070224</v>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H146" t="n">
+        <v>0.8230000000000001</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-6.662000000000001</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-8.443999999999999</v>
+      </c>
+      <c r="N146" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4552,7 +7192,25 @@
       <c r="G147" t="n">
         <v>172.183569</v>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H147" t="n">
+        <v>0.7979999999999999</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.06000000000000001</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-8.85</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-3.264</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-7.428999999999999</v>
+      </c>
+      <c r="N147" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4580,7 +7238,25 @@
       <c r="G148" t="n">
         <v>194.025121</v>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H148" t="n">
+        <v>0.8779999999999999</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.04099999999999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-2.938</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="N148" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4608,7 +7284,25 @@
       <c r="G149" t="n">
         <v>162.153576</v>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H149" t="n">
+        <v>0.7470000000000001</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-1.602</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-0.8320000000000002</v>
+      </c>
+      <c r="N149" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4636,7 +7330,25 @@
       <c r="G150" t="n">
         <v>204.610105</v>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H150" t="n">
+        <v>0.7869999999999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.2089999999999999</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-2.225</v>
+      </c>
+      <c r="N150" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4664,7 +7376,25 @@
       <c r="G151" t="n">
         <v>175.124441</v>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H151" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.1619999999999998</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-3.397</v>
+      </c>
+      <c r="N151" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4692,7 +7422,25 @@
       <c r="G152" t="n">
         <v>199.8279840000001</v>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H152" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.009000000000000003</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="L152" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-4.546</v>
+      </c>
+      <c r="N152" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4720,7 +7468,25 @@
       <c r="G153" t="n">
         <v>213.483744</v>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H153" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.05600000000000001</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-3.806000000000001</v>
+      </c>
+      <c r="N153" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4748,7 +7514,25 @@
       <c r="G154" t="n">
         <v>108.096261</v>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H154" t="n">
+        <v>0.7550000000000001</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-2.782</v>
+      </c>
+      <c r="L154" t="n">
+        <v>-0.655</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-8.097</v>
+      </c>
+      <c r="N154" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4776,7 +7560,25 @@
       <c r="G155" t="n">
         <v>174.021124</v>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H155" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-6.11</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-2.477</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2.664</v>
+      </c>
+      <c r="N155" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4804,7 +7606,25 @@
       <c r="G156" t="n">
         <v>157.2486840000001</v>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H156" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.02700000000000001</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.2540000000000001</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-6.852000000000001</v>
+      </c>
+      <c r="L156" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.946</v>
+      </c>
+      <c r="N156" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4832,7 +7652,25 @@
       <c r="G157" t="n">
         <v>196.116336</v>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H157" t="n">
+        <v>0.8160000000000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2.589</v>
+      </c>
+      <c r="L157" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-0.4979999999999995</v>
+      </c>
+      <c r="N157" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4860,7 +7698,25 @@
       <c r="G158" t="n">
         <v>152.683601</v>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H158" t="n">
+        <v>0.7590000000000001</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.03099999999999999</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-9.832000000000003</v>
+      </c>
+      <c r="L158" t="n">
+        <v>7.322</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.4329999999999998</v>
+      </c>
+      <c r="N158" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4888,7 +7744,25 @@
       <c r="G159" t="n">
         <v>212.371305</v>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H159" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-0.2170000000000002</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-1.725</v>
+      </c>
+      <c r="N159" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4916,7 +7790,25 @@
       <c r="G160" t="n">
         <v>137.658916</v>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H160" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-7.905000000000001</v>
+      </c>
+      <c r="L160" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.662</v>
+      </c>
+      <c r="N160" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4944,7 +7836,25 @@
       <c r="G161" t="n">
         <v>202.005016</v>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H161" t="n">
+        <v>0.7550000000000001</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.222</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="L161" t="n">
+        <v>-5.229</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="N161" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -4972,7 +7882,25 @@
       <c r="G162" t="n">
         <v>178.424665</v>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H162" t="n">
+        <v>0.8019999999999999</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="L162" t="n">
+        <v>-5.459000000000001</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="N162" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -5000,7 +7928,25 @@
       <c r="G163" t="n">
         <v>153.296004</v>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H163" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.096</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-3.049</v>
+      </c>
+      <c r="L163" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="M163" t="n">
+        <v>6.486</v>
+      </c>
+      <c r="N163" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -5028,7 +7974,25 @@
       <c r="G164" t="n">
         <v>181.914824</v>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H164" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.141</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-9.643000000000001</v>
+      </c>
+      <c r="L164" t="n">
+        <v>-1.499</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-1.826</v>
+      </c>
+      <c r="N164" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -5056,7 +8020,25 @@
       <c r="G165" t="n">
         <v>119.017161</v>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H165" t="n">
+        <v>0.8710000000000001</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.204</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-2.404</v>
+      </c>
+      <c r="L165" t="n">
+        <v>-6.035</v>
+      </c>
+      <c r="M165" t="n">
+        <v>7.897</v>
+      </c>
+      <c r="N165" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -5084,7 +8066,25 @@
       <c r="G166" t="n">
         <v>126.45176</v>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H166" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.08499999999999999</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-2.415</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="N166" t="inlineStr">
         <is>
           <t>Derecha</t>
         </is>
@@ -5112,7 +8112,25 @@
       <c r="G167" t="n">
         <v>13.898329</v>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H167" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-0.7650000000000001</v>
+      </c>
+      <c r="L167" t="n">
+        <v>4.663</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-3.149</v>
+      </c>
+      <c r="N167" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5140,7 +8158,25 @@
       <c r="G168" t="n">
         <v>67.88902399999999</v>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H168" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.8950000000000001</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.164</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-4.005</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-6.606</v>
+      </c>
+      <c r="N168" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5168,7 +8204,25 @@
       <c r="G169" t="n">
         <v>192.427601</v>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="H169" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.7869999999999999</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04900000000000001</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L169" t="n">
+        <v>-2.126</v>
+      </c>
+      <c r="M169" t="n">
+        <v>3.433</v>
+      </c>
+      <c r="N169" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5196,7 +8250,25 @@
       <c r="G170" t="n">
         <v>78.909381</v>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="H170" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2.435</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.1729999999999997</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-8.507000000000001</v>
+      </c>
+      <c r="N170" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5224,7 +8296,25 @@
       <c r="G171" t="n">
         <v>119.419589</v>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="H171" t="n">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.326</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-6.08</v>
+      </c>
+      <c r="L171" t="n">
+        <v>6.896000000000001</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.5009999999999998</v>
+      </c>
+      <c r="N171" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5252,7 +8342,25 @@
       <c r="G172" t="n">
         <v>4.692696</v>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="H172" t="n">
+        <v>-0.009000000000000001</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.9359999999999999</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-0.217</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-4.510999999999999</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="N172" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5280,7 +8388,25 @@
       <c r="G173" t="n">
         <v>65.43427599999998</v>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H173" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0.051</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-2.703</v>
+      </c>
+      <c r="L173" t="n">
+        <v>-1.916</v>
+      </c>
+      <c r="M173" t="n">
+        <v>6.681999999999999</v>
+      </c>
+      <c r="N173" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5308,7 +8434,25 @@
       <c r="G174" t="n">
         <v>104.231376</v>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="H174" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-6.35</v>
+      </c>
+      <c r="L174" t="n">
+        <v>5.090000000000001</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-1.788</v>
+      </c>
+      <c r="N174" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5336,7 +8480,25 @@
       <c r="G175" t="n">
         <v>12.433969</v>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="H175" t="n">
+        <v>0.3029999999999999</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.8940000000000001</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-0.326</v>
+      </c>
+      <c r="L175" t="n">
+        <v>6.136999999999999</v>
+      </c>
+      <c r="M175" t="n">
+        <v>-0.431</v>
+      </c>
+      <c r="N175" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5364,7 +8526,25 @@
       <c r="G176" t="n">
         <v>101.6949</v>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H176" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0.05899999999999998</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-7.081999999999999</v>
+      </c>
+      <c r="L176" t="n">
+        <v>-1.795</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-5.38</v>
+      </c>
+      <c r="N176" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5392,7 +8572,25 @@
       <c r="G177" t="n">
         <v>207.286084</v>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H177" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3.681</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-0.7739999999999999</v>
+      </c>
+      <c r="N177" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5420,7 +8618,25 @@
       <c r="G178" t="n">
         <v>128.55566</v>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H178" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.05999999999999998</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.3770000000000003</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.7639999999999997</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="N178" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5448,7 +8664,25 @@
       <c r="G179" t="n">
         <v>91.281621</v>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H179" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.317</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-8.003</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3.209000000000001</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-1.647</v>
+      </c>
+      <c r="N179" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5476,7 +8710,25 @@
       <c r="G180" t="n">
         <v>8.737180999999998</v>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H180" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0.199</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-4.779</v>
+      </c>
+      <c r="L180" t="n">
+        <v>-0.739</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="N180" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5504,7 +8756,25 @@
       <c r="G181" t="n">
         <v>51.843316</v>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H181" t="n">
+        <v>0.3090000000000001</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.8949999999999999</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.007000000000000004</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-2.728</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.6279999999999998</v>
+      </c>
+      <c r="M181" t="n">
+        <v>8.422000000000001</v>
+      </c>
+      <c r="N181" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5532,7 +8802,25 @@
       <c r="G182" t="n">
         <v>144.277589</v>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H182" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-9.718</v>
+      </c>
+      <c r="L182" t="n">
+        <v>-2.417</v>
+      </c>
+      <c r="M182" t="n">
+        <v>4.961</v>
+      </c>
+      <c r="N182" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5560,7 +8848,25 @@
       <c r="G183" t="n">
         <v>93.51004399999999</v>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="H183" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.7949999999999999</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="L183" t="n">
+        <v>-9.506</v>
+      </c>
+      <c r="M183" t="n">
+        <v>8.763999999999999</v>
+      </c>
+      <c r="N183" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5588,7 +8894,25 @@
       <c r="G184" t="n">
         <v>137.1105</v>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H184" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.7139999999999999</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0.147</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1.633</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N184" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5616,7 +8940,25 @@
       <c r="G185" t="n">
         <v>103.036524</v>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H185" t="n">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-0.882</v>
+      </c>
+      <c r="L185" t="n">
+        <v>-0.4189999999999999</v>
+      </c>
+      <c r="M185" t="n">
+        <v>-2.994</v>
+      </c>
+      <c r="N185" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5644,7 +8986,25 @@
       <c r="G186" t="n">
         <v>153.596629</v>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H186" t="n">
+        <v>-0.123</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.7550000000000001</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="K186" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L186" t="n">
+        <v>4.795</v>
+      </c>
+      <c r="M186" t="n">
+        <v>-2.011</v>
+      </c>
+      <c r="N186" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5672,7 +9032,25 @@
       <c r="G187" t="n">
         <v>202.616745</v>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H187" t="n">
+        <v>-0.141</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="K187" t="n">
+        <v>-5.515</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.7220000000000002</v>
+      </c>
+      <c r="M187" t="n">
+        <v>-5.445</v>
+      </c>
+      <c r="N187" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5700,7 +9078,25 @@
       <c r="G188" t="n">
         <v>128.60508</v>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H188" t="n">
+        <v>-0.146</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.7689999999999999</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K188" t="n">
+        <v>-0.6440000000000001</v>
+      </c>
+      <c r="L188" t="n">
+        <v>9.311</v>
+      </c>
+      <c r="M188" t="n">
+        <v>-3.890000000000001</v>
+      </c>
+      <c r="N188" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5728,7 +9124,25 @@
       <c r="G189" t="n">
         <v>138.889341</v>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="H189" t="n">
+        <v>-0.096</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.7060000000000001</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-1.562</v>
+      </c>
+      <c r="L189" t="n">
+        <v>7.744</v>
+      </c>
+      <c r="M189" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="N189" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5756,7 +9170,25 @@
       <c r="G190" t="n">
         <v>201.042945</v>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H190" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.7459999999999999</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01300000000000001</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3.522</v>
+      </c>
+      <c r="L190" t="n">
+        <v>-0.2250000000000001</v>
+      </c>
+      <c r="M190" t="n">
+        <v>-3.215</v>
+      </c>
+      <c r="N190" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5784,7 +9216,25 @@
       <c r="G191" t="n">
         <v>233.551044</v>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H191" t="n">
+        <v>-0.3930000000000001</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.05600000000000001</v>
+      </c>
+      <c r="K191" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L191" t="n">
+        <v>-0.466</v>
+      </c>
+      <c r="M191" t="n">
+        <v>-3.546</v>
+      </c>
+      <c r="N191" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5812,7 +9262,25 @@
       <c r="G192" t="n">
         <v>188.636505</v>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H192" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K192" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L192" t="n">
+        <v>5.524</v>
+      </c>
+      <c r="M192" t="n">
+        <v>-3.625</v>
+      </c>
+      <c r="N192" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5840,7 +9308,25 @@
       <c r="G193" t="n">
         <v>125.95226</v>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="H193" t="n">
+        <v>-0.258</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.6639999999999999</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.08099999999999999</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3.116000000000001</v>
+      </c>
+      <c r="M193" t="n">
+        <v>7.790000000000001</v>
+      </c>
+      <c r="N193" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5868,7 +9354,25 @@
       <c r="G194" t="n">
         <v>186.770721</v>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H194" t="n">
+        <v>-0.237</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="L194" t="n">
+        <v>4.415999999999999</v>
+      </c>
+      <c r="M194" t="n">
+        <v>-4.293</v>
+      </c>
+      <c r="N194" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5896,7 +9400,25 @@
       <c r="G195" t="n">
         <v>218.261984</v>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="H195" t="n">
+        <v>-0.204</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.7020000000000001</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="K195" t="n">
+        <v>-2.063</v>
+      </c>
+      <c r="L195" t="n">
+        <v>5.459999999999999</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="N195" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5924,7 +9446,25 @@
       <c r="G196" t="n">
         <v>222.378384</v>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="H196" t="n">
+        <v>-0.243</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.102</v>
+      </c>
+      <c r="K196" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>-7.691</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="N196" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5952,7 +9492,25 @@
       <c r="G197" t="n">
         <v>245.76</v>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="H197" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L197" t="n">
+        <v>-9.331</v>
+      </c>
+      <c r="M197" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="N197" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -5980,7 +9538,25 @@
       <c r="G198" t="n">
         <v>218.635529</v>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H198" t="n">
+        <v>-0.263</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>4.909000000000001</v>
+      </c>
+      <c r="M198" t="n">
+        <v>-1.801</v>
+      </c>
+      <c r="N198" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6008,7 +9584,25 @@
       <c r="G199" t="n">
         <v>226.860996</v>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="H199" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.6539999999999999</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>-6.180000000000001</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="N199" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6036,7 +9630,25 @@
       <c r="G200" t="n">
         <v>256</v>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H200" t="n">
+        <v>-0.104</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.7370000000000001</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>-7.391</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6064,7 +9676,25 @@
       <c r="G201" t="n">
         <v>227.664016</v>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H201" t="n">
+        <v>-0.041</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.7629999999999999</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.06099999999999998</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>-0.8079999999999998</v>
+      </c>
+      <c r="M201" t="n">
+        <v>-1.668</v>
+      </c>
+      <c r="N201" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6092,7 +9722,25 @@
       <c r="G202" t="n">
         <v>215.381056</v>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H202" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="K202" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="N202" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6120,7 +9768,25 @@
       <c r="G203" t="n">
         <v>154.475264</v>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="K203" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L203" t="n">
+        <v>-3.897</v>
+      </c>
+      <c r="M203" t="n">
+        <v>-7.256</v>
+      </c>
+      <c r="N203" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6148,7 +9814,25 @@
       <c r="G204" t="n">
         <v>73.79785999999999</v>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H204" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="K204" t="n">
+        <v>-1.177</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.9410000000000001</v>
+      </c>
+      <c r="M204" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="N204" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6176,7 +9860,25 @@
       <c r="G205" t="n">
         <v>167.584496</v>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H205" t="n">
+        <v>0.05900000000000001</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.7870000000000001</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.08499999999999999</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>6.542</v>
+      </c>
+      <c r="M205" t="n">
+        <v>6.897999999999999</v>
+      </c>
+      <c r="N205" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6204,7 +9906,25 @@
       <c r="G206" t="n">
         <v>201.725556</v>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H206" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="L206" t="n">
+        <v>7.715000000000001</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2.402</v>
+      </c>
+      <c r="N206" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6232,7 +9952,25 @@
       <c r="G207" t="n">
         <v>206.4400000000001</v>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="H207" t="n">
+        <v>0.03799999999999999</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="K207" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3.836</v>
+      </c>
+      <c r="M207" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N207" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6260,7 +9998,25 @@
       <c r="G208" t="n">
         <v>138.891249</v>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H208" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="M208" t="n">
+        <v>7.321</v>
+      </c>
+      <c r="N208" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6288,7 +10044,25 @@
       <c r="G209" t="n">
         <v>31.268096</v>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H209" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.3090000000000001</v>
+      </c>
+      <c r="K209" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="L209" t="n">
+        <v>-0.986</v>
+      </c>
+      <c r="M209" t="n">
+        <v>13.312</v>
+      </c>
+      <c r="N209" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6316,7 +10090,25 @@
       <c r="G210" t="n">
         <v>163.498225</v>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H210" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.6880000000000001</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="M210" t="n">
+        <v>8.205</v>
+      </c>
+      <c r="N210" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6344,7 +10136,25 @@
       <c r="G211" t="n">
         <v>197.601049</v>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H211" t="n">
+        <v>0.06100000000000001</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K211" t="n">
+        <v>-5.496</v>
+      </c>
+      <c r="L211" t="n">
+        <v>7.487</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="N211" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6372,7 +10182,25 @@
       <c r="G212" t="n">
         <v>181.570289</v>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H212" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.6739999999999999</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="N212" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6400,7 +10228,25 @@
       <c r="G213" t="n">
         <v>143.08836</v>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="H213" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="K213" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="M213" t="n">
+        <v>5.279999999999999</v>
+      </c>
+      <c r="N213" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6428,7 +10274,25 @@
       <c r="G214" t="n">
         <v>158.873369</v>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H214" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.7290000000000001</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="K214" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M214" t="n">
+        <v>7.229000000000001</v>
+      </c>
+      <c r="N214" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6456,7 +10320,25 @@
       <c r="G215" t="n">
         <v>153.020976</v>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H215" t="n">
+        <v>0.03599999999999999</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.04100000000000001</v>
+      </c>
+      <c r="K215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.1030000000000002</v>
+      </c>
+      <c r="M215" t="n">
+        <v>-4.272</v>
+      </c>
+      <c r="N215" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6484,7 +10366,25 @@
       <c r="G216" t="n">
         <v>203.220681</v>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H216" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="M216" t="n">
+        <v>-5.667</v>
+      </c>
+      <c r="N216" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6512,7 +10412,25 @@
       <c r="G217" t="n">
         <v>214.120809</v>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H217" t="n">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.7929999999999999</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="M217" t="n">
+        <v>-6.351</v>
+      </c>
+      <c r="N217" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6540,7 +10458,25 @@
       <c r="G218" t="n">
         <v>204.341984</v>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H218" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K218" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>-2.172</v>
+      </c>
+      <c r="M218" t="n">
+        <v>-2.386</v>
+      </c>
+      <c r="N218" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6568,7 +10504,25 @@
       <c r="G219" t="n">
         <v>155.636981</v>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H219" t="n">
+        <v>0.02799999999999999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="J219" t="n">
+        <v>-0.008000000000000012</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.2889999999999999</v>
+      </c>
+      <c r="M219" t="n">
+        <v>5.653</v>
+      </c>
+      <c r="N219" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6596,7 +10550,25 @@
       <c r="G220" t="n">
         <v>204.454836</v>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H220" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="M220" t="n">
+        <v>-5.448</v>
+      </c>
+      <c r="N220" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6624,7 +10596,25 @@
       <c r="G221" t="n">
         <v>256</v>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H221" t="n">
+        <v>-0.142</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.9510000000000002</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3.407000000000001</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="inlineStr">
         <is>
           <t>Frente</t>
         </is>
@@ -6652,7 +10642,25 @@
       <c r="G222" t="n">
         <v>139.892969</v>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H222" t="n">
+        <v>-0.8230000000000001</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-9.503</v>
+      </c>
+      <c r="L222" t="n">
+        <v>6.947</v>
+      </c>
+      <c r="M222" t="n">
+        <v>-2.971</v>
+      </c>
+      <c r="N222" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6680,7 +10688,25 @@
       <c r="G223" t="n">
         <v>163.823345</v>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H223" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.004999999999999996</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K223" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L223" t="n">
+        <v>-1.033</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="N223" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6708,7 +10734,25 @@
       <c r="G224" t="n">
         <v>180.067649</v>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H224" t="n">
+        <v>-0.892</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K224" t="n">
+        <v>-3.303</v>
+      </c>
+      <c r="L224" t="n">
+        <v>7.998</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="N224" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6736,7 +10780,25 @@
       <c r="G225" t="n">
         <v>198.983561</v>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H225" t="n">
+        <v>-0.8489999999999999</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.4029999999999999</v>
+      </c>
+      <c r="K225" t="n">
+        <v>7.618</v>
+      </c>
+      <c r="L225" t="n">
+        <v>-0.04499999999999993</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.007000000000000384</v>
+      </c>
+      <c r="N225" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6764,7 +10826,25 @@
       <c r="G226" t="n">
         <v>138.470784</v>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H226" t="n">
+        <v>-0.8719999999999999</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2.117</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.9140000000000003</v>
+      </c>
+      <c r="N226" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6792,7 +10872,25 @@
       <c r="G227" t="n">
         <v>148.206501</v>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H227" t="n">
+        <v>-0.9119999999999999</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.03099999999999999</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K227" t="n">
+        <v>-4.063</v>
+      </c>
+      <c r="L227" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="N227" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6820,7 +10918,25 @@
       <c r="G228" t="n">
         <v>203.781925</v>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H228" t="n">
+        <v>-0.825</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="K228" t="n">
+        <v>-3.504</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1.351</v>
+      </c>
+      <c r="M228" t="n">
+        <v>-1.215</v>
+      </c>
+      <c r="N228" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6848,7 +10964,25 @@
       <c r="G229" t="n">
         <v>104.453189</v>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H229" t="n">
+        <v>-0.788</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.3690000000000001</v>
+      </c>
+      <c r="K229" t="n">
+        <v>-3.332</v>
+      </c>
+      <c r="L229" t="n">
+        <v>4.947</v>
+      </c>
+      <c r="M229" t="n">
+        <v>-3.861000000000001</v>
+      </c>
+      <c r="N229" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6876,7 +11010,25 @@
       <c r="G230" t="n">
         <v>114.205344</v>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H230" t="n">
+        <v>-0.8130000000000001</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="K230" t="n">
+        <v>4.029999999999999</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3.486</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="N230" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6904,7 +11056,25 @@
       <c r="G231" t="n">
         <v>129.167929</v>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H231" t="n">
+        <v>-0.9099999999999999</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.03000000000000001</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K231" t="n">
+        <v>6.190999999999999</v>
+      </c>
+      <c r="L231" t="n">
+        <v>6.079000000000001</v>
+      </c>
+      <c r="M231" t="n">
+        <v>-4.781000000000001</v>
+      </c>
+      <c r="N231" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6932,7 +11102,25 @@
       <c r="G232" t="n">
         <v>133.40304</v>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H232" t="n">
+        <v>-0.726</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-6.505</v>
+      </c>
+      <c r="L232" t="n">
+        <v>13.537</v>
+      </c>
+      <c r="M232" t="n">
+        <v>-3.789999999999999</v>
+      </c>
+      <c r="N232" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6960,7 +11148,25 @@
       <c r="G233" t="n">
         <v>162.501576</v>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H233" t="n">
+        <v>-0.7140000000000001</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="L233" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="N233" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -6988,7 +11194,25 @@
       <c r="G234" t="n">
         <v>136.853361</v>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H234" t="n">
+        <v>-0.8799999999999999</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.4309999999999999</v>
+      </c>
+      <c r="K234" t="n">
+        <v>5.818000000000001</v>
+      </c>
+      <c r="L234" t="n">
+        <v>10.948</v>
+      </c>
+      <c r="M234" t="n">
+        <v>4.063000000000001</v>
+      </c>
+      <c r="N234" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7016,7 +11240,25 @@
       <c r="G235" t="n">
         <v>131.334376</v>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H235" t="n">
+        <v>-0.781</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-0.009000000000000164</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="M235" t="n">
+        <v>5.322000000000001</v>
+      </c>
+      <c r="N235" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7044,7 +11286,25 @@
       <c r="G236" t="n">
         <v>213.024144</v>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="H236" t="n">
+        <v>-0.805</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="M236" t="n">
+        <v>-1.756</v>
+      </c>
+      <c r="N236" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7072,7 +11332,25 @@
       <c r="G237" t="n">
         <v>108.464909</v>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H237" t="n">
+        <v>-0.8240000000000001</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-0.108</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K237" t="n">
+        <v>7.392</v>
+      </c>
+      <c r="L237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M237" t="n">
+        <v>4.558999999999999</v>
+      </c>
+      <c r="N237" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7100,7 +11378,25 @@
       <c r="G238" t="n">
         <v>174.857981</v>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H238" t="n">
+        <v>-0.806</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.08299999999999999</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K238" t="n">
+        <v>-0.3539999999999999</v>
+      </c>
+      <c r="L238" t="n">
+        <v>-3.665999999999999</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="N238" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7128,7 +11424,25 @@
       <c r="G239" t="n">
         <v>96.5175</v>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H239" t="n">
+        <v>-0.841</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-1.454</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M239" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="N239" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7156,7 +11470,25 @@
       <c r="G240" t="n">
         <v>102.018609</v>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H240" t="n">
+        <v>-0.8109999999999999</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-0.01900000000000001</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K240" t="n">
+        <v>5.343</v>
+      </c>
+      <c r="L240" t="n">
+        <v>-1.336</v>
+      </c>
+      <c r="M240" t="n">
+        <v>-1.459</v>
+      </c>
+      <c r="N240" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7184,7 +11516,25 @@
       <c r="G241" t="n">
         <v>166.935856</v>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H241" t="n">
+        <v>-0.7310000000000001</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.3569999999999999</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-0.05500000000000025</v>
+      </c>
+      <c r="L241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.9580000000000002</v>
+      </c>
+      <c r="N241" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7212,7 +11562,25 @@
       <c r="G242" t="n">
         <v>152.681376</v>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H242" t="n">
+        <v>-0.7769999999999999</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="K242" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="L242" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M242" t="n">
+        <v>-5.532</v>
+      </c>
+      <c r="N242" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7240,7 +11608,25 @@
       <c r="G243" t="n">
         <v>161.62278</v>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H243" t="n">
+        <v>-0.8120000000000001</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="N243" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7268,7 +11654,25 @@
       <c r="G244" t="n">
         <v>160.806736</v>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H244" t="n">
+        <v>-0.783</v>
+      </c>
+      <c r="I244" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K244" t="n">
+        <v>-7.12</v>
+      </c>
+      <c r="L244" t="n">
+        <v>-0.06799999999999998</v>
+      </c>
+      <c r="M244" t="n">
+        <v>-9.342000000000001</v>
+      </c>
+      <c r="N244" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7296,7 +11700,25 @@
       <c r="G245" t="n">
         <v>152.613484</v>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H245" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-0.08099999999999999</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="K245" t="n">
+        <v>-0.4630000000000002</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="M245" t="n">
+        <v>-6.056</v>
+      </c>
+      <c r="N245" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7324,7 +11746,25 @@
       <c r="G246" t="n">
         <v>181.133449</v>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H246" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-0.05500000000000001</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-0.457</v>
+      </c>
+      <c r="L246" t="n">
+        <v>-0.9640000000000001</v>
+      </c>
+      <c r="M246" t="n">
+        <v>-3.771</v>
+      </c>
+      <c r="N246" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7352,7 +11792,25 @@
       <c r="G247" t="n">
         <v>225.760649</v>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="H247" t="n">
+        <v>-0.748</v>
+      </c>
+      <c r="I247" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="K247" t="n">
+        <v>-5.650999999999999</v>
+      </c>
+      <c r="L247" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="N247" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7380,7 +11838,25 @@
       <c r="G248" t="n">
         <v>183.450216</v>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H248" t="n">
+        <v>-0.8949999999999999</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.05800000000000001</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.3869999999999997</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="N248" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7408,7 +11884,25 @@
       <c r="G249" t="n">
         <v>227.742756</v>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H249" t="n">
+        <v>-0.8360000000000001</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01900000000000001</v>
+      </c>
+      <c r="K249" t="n">
+        <v>-1.676</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="N249" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7436,7 +11930,25 @@
       <c r="G250" t="n">
         <v>226.368121</v>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H250" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J250" t="n">
+        <v>-0.142</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="M250" t="n">
+        <v>-2.277</v>
+      </c>
+      <c r="N250" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7464,7 +11976,25 @@
       <c r="G251" t="n">
         <v>229.384361</v>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H251" t="n">
+        <v>-0.9019999999999999</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J251" t="n">
+        <v>-0.1640000000000001</v>
+      </c>
+      <c r="K251" t="n">
+        <v>-2.554</v>
+      </c>
+      <c r="L251" t="n">
+        <v>-1.392</v>
+      </c>
+      <c r="M251" t="n">
+        <v>-1.327</v>
+      </c>
+      <c r="N251" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7492,7 +12022,25 @@
       <c r="G252" t="n">
         <v>227.559824</v>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H252" t="n">
+        <v>-0.6910000000000001</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.05199999999999997</v>
+      </c>
+      <c r="K252" t="n">
+        <v>-0.727</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="N252" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7520,7 +12068,25 @@
       <c r="G253" t="n">
         <v>209.355049</v>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H253" t="n">
+        <v>-0.7949999999999999</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J253" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="N253" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7548,7 +12114,25 @@
       <c r="G254" t="n">
         <v>208.952849</v>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="H254" t="n">
+        <v>-0.835</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="K254" t="n">
+        <v>-6.393</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>4.459000000000001</v>
+      </c>
+      <c r="N254" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7576,7 +12160,25 @@
       <c r="G255" t="n">
         <v>245.76</v>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H255" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.3139999999999999</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N255" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7604,7 +12206,25 @@
       <c r="G256" t="n">
         <v>210.706716</v>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H256" t="n">
+        <v>-0.6910000000000001</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.06000000000000001</v>
+      </c>
+      <c r="J256" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="K256" t="n">
+        <v>-6.272</v>
+      </c>
+      <c r="L256" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="N256" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7632,7 +12252,25 @@
       <c r="G257" t="n">
         <v>202.626324</v>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H257" t="n">
+        <v>-0.8169999999999999</v>
+      </c>
+      <c r="I257" t="n">
+        <v>-0.004000000000000001</v>
+      </c>
+      <c r="J257" t="n">
+        <v>-0.102</v>
+      </c>
+      <c r="K257" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M257" t="n">
+        <v>-5.556</v>
+      </c>
+      <c r="N257" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7660,7 +12298,25 @@
       <c r="G258" t="n">
         <v>242.099609</v>
       </c>
-      <c r="H258" t="inlineStr">
+      <c r="H258" t="n">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="J258" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.8809999999999999</v>
+      </c>
+      <c r="L258" t="n">
+        <v>-2.147</v>
+      </c>
+      <c r="M258" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="N258" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7688,7 +12344,25 @@
       <c r="G259" t="n">
         <v>245.76</v>
       </c>
-      <c r="H259" t="inlineStr">
+      <c r="H259" t="n">
+        <v>-0.7350000000000001</v>
+      </c>
+      <c r="I259" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="J259" t="n">
+        <v>-0.256</v>
+      </c>
+      <c r="K259" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="L259" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="M259" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="N259" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7716,7 +12390,25 @@
       <c r="G260" t="n">
         <v>194.773281</v>
       </c>
-      <c r="H260" t="inlineStr">
+      <c r="H260" t="n">
+        <v>-0.7609999999999999</v>
+      </c>
+      <c r="I260" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="J260" t="n">
+        <v>-0.242</v>
+      </c>
+      <c r="K260" t="n">
+        <v>-12.822</v>
+      </c>
+      <c r="L260" t="n">
+        <v>-2.212</v>
+      </c>
+      <c r="M260" t="n">
+        <v>4.462999999999999</v>
+      </c>
+      <c r="N260" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7744,7 +12436,25 @@
       <c r="G261" t="n">
         <v>221.878416</v>
       </c>
-      <c r="H261" t="inlineStr">
+      <c r="H261" t="n">
+        <v>-0.792</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.05100000000000001</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.07899999999999999</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="M261" t="n">
+        <v>-1.268</v>
+      </c>
+      <c r="N261" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7772,7 +12482,25 @@
       <c r="G262" t="n">
         <v>108.464909</v>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="H262" t="n">
+        <v>-0.8240000000000001</v>
+      </c>
+      <c r="I262" t="n">
+        <v>-0.108</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K262" t="n">
+        <v>7.392</v>
+      </c>
+      <c r="L262" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M262" t="n">
+        <v>4.558999999999999</v>
+      </c>
+      <c r="N262" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7800,7 +12528,25 @@
       <c r="G263" t="n">
         <v>174.857981</v>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="H263" t="n">
+        <v>-0.806</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.08299999999999999</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K263" t="n">
+        <v>-0.3539999999999999</v>
+      </c>
+      <c r="L263" t="n">
+        <v>-3.665999999999999</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="N263" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7828,7 +12574,25 @@
       <c r="G264" t="n">
         <v>96.5175</v>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="H264" t="n">
+        <v>-0.841</v>
+      </c>
+      <c r="I264" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K264" t="n">
+        <v>-1.454</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M264" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="N264" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7856,7 +12620,25 @@
       <c r="G265" t="n">
         <v>102.018609</v>
       </c>
-      <c r="H265" t="inlineStr">
+      <c r="H265" t="n">
+        <v>-0.8109999999999999</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-0.01900000000000001</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K265" t="n">
+        <v>5.343</v>
+      </c>
+      <c r="L265" t="n">
+        <v>-1.336</v>
+      </c>
+      <c r="M265" t="n">
+        <v>-1.459</v>
+      </c>
+      <c r="N265" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7884,7 +12666,25 @@
       <c r="G266" t="n">
         <v>166.935856</v>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="H266" t="n">
+        <v>-0.7310000000000001</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.3569999999999999</v>
+      </c>
+      <c r="K266" t="n">
+        <v>-0.05500000000000025</v>
+      </c>
+      <c r="L266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.9580000000000002</v>
+      </c>
+      <c r="N266" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7912,7 +12712,25 @@
       <c r="G267" t="n">
         <v>152.681376</v>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H267" t="n">
+        <v>-0.7769999999999999</v>
+      </c>
+      <c r="I267" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="K267" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="L267" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>-5.532</v>
+      </c>
+      <c r="N267" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7940,7 +12758,25 @@
       <c r="G268" t="n">
         <v>161.62278</v>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="H268" t="n">
+        <v>-0.8120000000000001</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K268" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="N268" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7968,7 +12804,25 @@
       <c r="G269" t="n">
         <v>160.806736</v>
       </c>
-      <c r="H269" t="inlineStr">
+      <c r="H269" t="n">
+        <v>-0.783</v>
+      </c>
+      <c r="I269" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K269" t="n">
+        <v>-7.12</v>
+      </c>
+      <c r="L269" t="n">
+        <v>-0.06799999999999998</v>
+      </c>
+      <c r="M269" t="n">
+        <v>-9.342000000000001</v>
+      </c>
+      <c r="N269" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -7996,7 +12850,25 @@
       <c r="G270" t="n">
         <v>152.613484</v>
       </c>
-      <c r="H270" t="inlineStr">
+      <c r="H270" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="I270" t="n">
+        <v>-0.08099999999999999</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="K270" t="n">
+        <v>-0.4630000000000002</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="M270" t="n">
+        <v>-6.056</v>
+      </c>
+      <c r="N270" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -8024,7 +12896,25 @@
       <c r="G271" t="n">
         <v>181.133449</v>
       </c>
-      <c r="H271" t="inlineStr">
+      <c r="H271" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="I271" t="n">
+        <v>-0.05500000000000001</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="K271" t="n">
+        <v>-0.457</v>
+      </c>
+      <c r="L271" t="n">
+        <v>-0.9640000000000001</v>
+      </c>
+      <c r="M271" t="n">
+        <v>-3.771</v>
+      </c>
+      <c r="N271" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -8052,7 +12942,25 @@
       <c r="G272" t="n">
         <v>195.199876</v>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="H272" t="n">
+        <v>-0.779</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-0.06799999999999999</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="K272" t="n">
+        <v>-10.691</v>
+      </c>
+      <c r="L272" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="M272" t="n">
+        <v>2.552</v>
+      </c>
+      <c r="N272" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -8080,7 +12988,25 @@
       <c r="G273" t="n">
         <v>103.1515</v>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="H273" t="n">
+        <v>-0.7899999999999999</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="K273" t="n">
+        <v>-4.153</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.7900000000000003</v>
+      </c>
+      <c r="M273" t="n">
+        <v>-8.84</v>
+      </c>
+      <c r="N273" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -8108,7 +13034,25 @@
       <c r="G274" t="n">
         <v>177.485465</v>
       </c>
-      <c r="H274" t="inlineStr">
+      <c r="H274" t="n">
+        <v>-0.768</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.007999999999999998</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.4069999999999999</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="M274" t="n">
+        <v>-3.055</v>
+      </c>
+      <c r="N274" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -8136,7 +13080,25 @@
       <c r="G275" t="n">
         <v>136.783049</v>
       </c>
-      <c r="H275" t="inlineStr">
+      <c r="H275" t="n">
+        <v>-0.749</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.08499999999999999</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.4520000000000001</v>
+      </c>
+      <c r="K275" t="n">
+        <v>-9.349</v>
+      </c>
+      <c r="L275" t="n">
+        <v>-3.608</v>
+      </c>
+      <c r="M275" t="n">
+        <v>-3.819</v>
+      </c>
+      <c r="N275" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
@@ -8164,7 +13126,25 @@
       <c r="G276" t="n">
         <v>178.276989</v>
       </c>
-      <c r="H276" t="inlineStr">
+      <c r="H276" t="n">
+        <v>-0.728</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.5029999999999999</v>
+      </c>
+      <c r="K276" t="n">
+        <v>-3.681</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>-0.999</v>
+      </c>
+      <c r="N276" t="inlineStr">
         <is>
           <t>Izquierda</t>
         </is>
